--- a/07 - ARIMA/06-ARIMA.xlsx
+++ b/07 - ARIMA/06-ARIMA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\Mai\Teaching\Courses\LM7204-BizForecasting\Excel-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\business-forecasting\07 - ARIMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF25B28-0966-47F3-8F91-F925BE26B0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16950" windowHeight="11790" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AR1Loglikelihood (2)" sheetId="11" r:id="rId1"/>
@@ -51,22 +52,31 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Keating</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>Week</t>
   </si>
@@ -287,11 +297,30 @@
     <t>AR1
 1-step FC</t>
   </si>
+  <si>
+    <t>2nd-order sample autocorrelation</t>
+  </si>
+  <si>
+    <r>
+      <t>2nd-order lagged values y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t-2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1494,7 +1523,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1626,7 +1654,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1744,7 +1771,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2758,7 +2784,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2840,7 +2865,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8831,7 +8855,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8863,7 +8893,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8893,6 +8929,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>2347232</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>455006</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1719B5F1-3CD5-4F47-AC85-5CBFD6361A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2347232" y="2626179"/>
+          <a:ext cx="3795560" cy="924054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2019300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -8905,7 +8990,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8943,7 +9034,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8961,7 +9058,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8978,42 +9075,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38106</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114306</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9035,6 +9103,287 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114306</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1039452" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A869C2C0-4E5D-4FEE-ABD2-80681BCA03A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2419350" y="771525"/>
+              <a:ext cx="1039452" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜖</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜖</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A869C2C0-4E5D-4FEE-ABD2-80681BCA03A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2419350" y="771525"/>
+              <a:ext cx="1039452" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦_4=𝜖_4+𝜃_1 𝜖_(𝑡−3)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -9048,7 +9397,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9078,7 +9433,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9103,7 +9464,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9120,7 +9481,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9146,7 +9513,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9163,7 +9530,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9195,7 +9568,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9482,7 +9861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF203"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -15704,11 +16083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15778,7 +16157,7 @@
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <f>B2</f>
@@ -15830,7 +16209,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <f>B7/B6</f>
@@ -15839,11 +16218,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -15989,7 +16369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20049,12 +20429,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20139,6 +20519,10 @@
       <c r="C5" s="4">
         <v>0.520146</v>
       </c>
+      <c r="E5">
+        <f>B5+F1*B4</f>
+        <v>0.52014609999999994</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -22317,12 +22701,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O201" sqref="O201"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27827,7 +28211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31035,10 +31419,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AF203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
@@ -37058,7 +37442,7 @@
         <v>0.3867283989000001</v>
       </c>
       <c r="R195">
-        <f t="shared" ref="R195:R226" si="12">_xlfn.NORM.DIST(Q195,0,$W$8,FALSE)</f>
+        <f t="shared" ref="R195:R201" si="12">_xlfn.NORM.DIST(Q195,0,$W$8,FALSE)</f>
         <v>0.56820972239945411</v>
       </c>
     </row>
@@ -37257,7 +37641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38431,6 +38815,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF6D9EDA35E42B4B8BA68358CD6B4667" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c2d3313f571f159a984235e0da85421">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d47f257c-f9b4-4a78-89eb-782bf7388d0d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64fa7c12d726f85c4b96a9ad3b163f70" ns2:_="">
     <xsd:import namespace="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
@@ -38562,29 +38961,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610D65C9-39AB-4DB6-B11E-D7C0711331F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA5FD952-A78B-4B11-9FF0-9BBBF6F9D2BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA5FD952-A78B-4B11-9FF0-9BBBF6F9D2BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F34AB04-C59E-409A-9DC9-E1B800498BFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F34AB04-C59E-409A-9DC9-E1B800498BFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610D65C9-39AB-4DB6-B11E-D7C0711331F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d47f257c-f9b4-4a78-89eb-782bf7388d0d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>